--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_6.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_6.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -26314,16 +26316,16 @@
         <v>5890.65439356769</v>
       </c>
       <c r="C2" t="n">
+        <v>5890.65439356769</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5890.65439356769</v>
+      </c>
+      <c r="E2" t="n">
         <v>5890.654393567689</v>
       </c>
-      <c r="D2" t="n">
-        <v>5890.654393567689</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5890.654393567691</v>
-      </c>
       <c r="F2" t="n">
-        <v>5890.654393567691</v>
+        <v>5890.65439356769</v>
       </c>
       <c r="G2" t="n">
         <v>5890.654393567689</v>
@@ -26338,13 +26340,13 @@
         <v>5890.654393567689</v>
       </c>
       <c r="K2" t="n">
-        <v>5890.654393567691</v>
+        <v>5890.65439356769</v>
       </c>
       <c r="L2" t="n">
         <v>5890.65439356769</v>
       </c>
       <c r="M2" t="n">
-        <v>5890.65439356769</v>
+        <v>5890.654393567688</v>
       </c>
       <c r="N2" t="n">
         <v>5890.654393567689</v>
@@ -26353,7 +26355,7 @@
         <v>5890.65439356769</v>
       </c>
       <c r="P2" t="n">
-        <v>5890.654393567689</v>
+        <v>5890.65439356769</v>
       </c>
     </row>
     <row r="3">
@@ -26528,10 +26530,10 @@
         <v>-32645.82426773872</v>
       </c>
       <c r="E6" t="n">
-        <v>981.7757322612815</v>
+        <v>981.7757322612797</v>
       </c>
       <c r="F6" t="n">
-        <v>981.7757322612815</v>
+        <v>981.7757322612806</v>
       </c>
       <c r="G6" t="n">
         <v>981.7757322612797</v>
@@ -26546,13 +26548,13 @@
         <v>981.7757322612797</v>
       </c>
       <c r="K6" t="n">
-        <v>981.7757322612815</v>
+        <v>981.7757322612806</v>
       </c>
       <c r="L6" t="n">
         <v>981.7757322612806</v>
       </c>
       <c r="M6" t="n">
-        <v>981.7757322612806</v>
+        <v>981.7757322612788</v>
       </c>
       <c r="N6" t="n">
         <v>981.7757322612797</v>
@@ -26561,7 +26563,7 @@
         <v>981.7757322612806</v>
       </c>
       <c r="P6" t="n">
-        <v>981.7757322612797</v>
+        <v>981.7757322612806</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_6.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-83775.33970858538</v>
+        <v>-95136.70805020959</v>
       </c>
     </row>
     <row r="7">
@@ -26322,13 +26322,13 @@
         <v>5890.65439356769</v>
       </c>
       <c r="E2" t="n">
-        <v>5890.654393567689</v>
+        <v>5890.65439356769</v>
       </c>
       <c r="F2" t="n">
         <v>5890.65439356769</v>
       </c>
       <c r="G2" t="n">
-        <v>5890.654393567689</v>
+        <v>5890.65439356769</v>
       </c>
       <c r="H2" t="n">
         <v>5890.65439356769</v>
@@ -26337,7 +26337,7 @@
         <v>5890.65439356769</v>
       </c>
       <c r="J2" t="n">
-        <v>5890.654393567689</v>
+        <v>5890.65439356769</v>
       </c>
       <c r="K2" t="n">
         <v>5890.65439356769</v>
@@ -26346,10 +26346,10 @@
         <v>5890.65439356769</v>
       </c>
       <c r="M2" t="n">
-        <v>5890.654393567688</v>
+        <v>5890.65439356769</v>
       </c>
       <c r="N2" t="n">
-        <v>5890.654393567689</v>
+        <v>5890.65439356769</v>
       </c>
       <c r="O2" t="n">
         <v>5890.65439356769</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-32645.82426773872</v>
+        <v>-34003.7533645405</v>
       </c>
       <c r="C6" t="n">
-        <v>-32645.82426773872</v>
+        <v>-34003.7533645405</v>
       </c>
       <c r="D6" t="n">
-        <v>-32645.82426773872</v>
+        <v>-34003.7533645405</v>
       </c>
       <c r="E6" t="n">
-        <v>981.7757322612797</v>
+        <v>-376.1533645404988</v>
       </c>
       <c r="F6" t="n">
-        <v>981.7757322612806</v>
+        <v>-376.1533645404988</v>
       </c>
       <c r="G6" t="n">
-        <v>981.7757322612797</v>
+        <v>-376.1533645404988</v>
       </c>
       <c r="H6" t="n">
-        <v>981.7757322612806</v>
+        <v>-376.1533645404988</v>
       </c>
       <c r="I6" t="n">
-        <v>981.7757322612806</v>
+        <v>-376.1533645404988</v>
       </c>
       <c r="J6" t="n">
-        <v>981.7757322612797</v>
+        <v>-376.1533645404988</v>
       </c>
       <c r="K6" t="n">
-        <v>981.7757322612806</v>
+        <v>-376.1533645404988</v>
       </c>
       <c r="L6" t="n">
-        <v>981.7757322612806</v>
+        <v>-376.1533645404988</v>
       </c>
       <c r="M6" t="n">
-        <v>981.7757322612788</v>
+        <v>-376.1533645404988</v>
       </c>
       <c r="N6" t="n">
-        <v>981.7757322612797</v>
+        <v>-376.1533645404988</v>
       </c>
       <c r="O6" t="n">
-        <v>981.7757322612806</v>
+        <v>-376.1533645404988</v>
       </c>
       <c r="P6" t="n">
-        <v>981.7757322612806</v>
+        <v>-376.1533645404988</v>
       </c>
     </row>
   </sheetData>
